--- a/多线程/test.xlsx
+++ b/多线程/test.xlsx
@@ -1,48 +1,502 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="16155" windowHeight="8505"/>
+    <workbookView windowWidth="19935" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+  <si>
+    <t>多线程</t>
+  </si>
+  <si>
+    <t>java中有几种方法可以实现一个线程？</t>
+  </si>
+  <si>
+    <t>如何停止一个正在运行的线程？</t>
+  </si>
+  <si>
+    <t>notify()和notifyAll()有什么区别？</t>
+  </si>
+  <si>
+    <t>sleep()和 wait()有什么区别?</t>
+  </si>
+  <si>
+    <t>什么是Daemon线程？它有什么意义？</t>
+  </si>
+  <si>
+    <t>java如何实现多线程之间的通讯和协作？</t>
+  </si>
+  <si>
+    <t>锁</t>
+  </si>
+  <si>
+    <t>什么是可重入锁（ReentrantLock）？</t>
+  </si>
+  <si>
+    <t>当一个线程进入某个对象的一个synchronized的实例方法后，其它线程是否可进入此对象的其它方法？</t>
+  </si>
+  <si>
+    <t>synchronized和java.util.concurrent.locks.Lock的异同？</t>
+  </si>
+  <si>
+    <t>乐观锁和悲观锁的理解及如何实现，有哪些实现方式？</t>
+  </si>
+  <si>
+    <t>并发框架</t>
+  </si>
+  <si>
+    <t>SynchronizedMap和ConcurrentHashMap有什么区别？</t>
+  </si>
+  <si>
+    <t>CopyOnWriteArrayList可以用于什么应用场景？</t>
+  </si>
+  <si>
+    <t>线程安全</t>
+  </si>
+  <si>
+    <t>什么叫线程安全？servlet是线程安全吗?</t>
+  </si>
+  <si>
+    <t>同步有几种实现方法？</t>
+  </si>
+  <si>
+    <t>volatile有什么用？能否用一句话说明下volatile的应用场景？</t>
+  </si>
+  <si>
+    <t>请说明下java的内存模型及其工作流程。</t>
+  </si>
+  <si>
+    <t>为什么代码会重排序？</t>
+  </si>
+  <si>
+    <t>并发容器和框架</t>
+  </si>
+  <si>
+    <t>如何合理的配置java线程池？如CPU密集型的任务，基本线程池应该配置多大？</t>
+  </si>
+  <si>
+    <t>IO密集型的任务，基本线程池应该配置多大？</t>
+  </si>
+  <si>
+    <t>用有界队列好还是无界队列好？</t>
+  </si>
+  <si>
+    <t>任务非常多的时候，使用什么阻塞队列能获取最好的吞吐量？</t>
+  </si>
+  <si>
+    <t>如何使用阻塞队列实现一个生产者和消费者模型？请写代码。</t>
+  </si>
+  <si>
+    <t>多读少写的场景应该使用哪个并发容器，为什么使用它？比如你做了一个搜索引擎，搜索引擎每次搜索前需要判断搜索关键词是否在黑名单里，黑名单每天更新一次。</t>
+  </si>
+  <si>
+    <t>Java中的锁</t>
+  </si>
+  <si>
+    <t>如何实现乐观锁（CAS）？如何避免ABA问题？</t>
+  </si>
+  <si>
+    <t>读写锁可以用于什么应用场景？</t>
+  </si>
+  <si>
+    <t>什么时候应该使用可重入锁？</t>
+  </si>
+  <si>
+    <t>什么场景下可以使用volatile替换synchronized？</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -50,21 +504,322 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -355,50 +1110,222 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="I3" sqref="I3:L7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="1" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" s="1" customFormat="1" spans="1:1">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" s="1" customFormat="1" spans="1:1">
+      <c r="A19" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" spans="1:1">
+      <c r="A26" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" spans="1:1">
+      <c r="A34" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/多线程/test.xlsx
+++ b/多线程/test.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19935" windowHeight="8010"/>
+    <workbookView windowWidth="25200" windowHeight="11970" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="并发" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>多线程</t>
   </si>
@@ -115,6 +115,213 @@
   </si>
   <si>
     <t>什么场景下可以使用volatile替换synchronized？</t>
+  </si>
+  <si>
+    <t>异常处理</t>
+  </si>
+  <si>
+    <t>Catched Exception/RuntimeException的区别</t>
+  </si>
+  <si>
+    <t>try代码块中有return的话finally代码块中还会执行吗？</t>
+  </si>
+  <si>
+    <t>Object类</t>
+  </si>
+  <si>
+    <t>Object类有哪些方法？</t>
+  </si>
+  <si>
+    <t>hashCode()方法的原始实现是怎么做的？</t>
+  </si>
+  <si>
+    <t>重写了equals()后还需要重写什么方法？为什么？</t>
+  </si>
+  <si>
+    <t>面向对象</t>
+  </si>
+  <si>
+    <t>abstract class和interface的区别？</t>
+  </si>
+  <si>
+    <t>Override和Overwrite的区别？</t>
+  </si>
+  <si>
+    <t>final/finally/finalize的区别？</t>
+  </si>
+  <si>
+    <t>简述public、protected、private和不加修饰符的访问权限？</t>
+  </si>
+  <si>
+    <t>容器类</t>
+  </si>
+  <si>
+    <t>ArrayList和LinkedList的区别</t>
+  </si>
+  <si>
+    <t>Array和Arrays的区别</t>
+  </si>
+  <si>
+    <t>List和Vector的区别</t>
+  </si>
+  <si>
+    <t>List和Set的区别</t>
+  </si>
+  <si>
+    <t>ArrayList的实现原理</t>
+  </si>
+  <si>
+    <t>HashMap和HashTable的区别</t>
+  </si>
+  <si>
+    <t>HashMap是如何处理Hash碰撞的</t>
+  </si>
+  <si>
+    <t>HashMap的实现原理</t>
+  </si>
+  <si>
+    <t>实现多线程有哪几种方法？</t>
+  </si>
+  <si>
+    <t>启动一个线程是使用start()方法还是run()方法？</t>
+  </si>
+  <si>
+    <t>sleep()和wait()的区别？</t>
+  </si>
+  <si>
+    <t>notify()和notifyAll()的区别？</t>
+  </si>
+  <si>
+    <t>一个类中有2个同步方法，两个不同的线程是否可以并发的分别访问这个类的同一个实例的这2个不同的同步方法？</t>
+  </si>
+  <si>
+    <t>ThreadLocal的作用</t>
+  </si>
+  <si>
+    <t>volatile关键字的意义和使用场景</t>
+  </si>
+  <si>
+    <t>序列化</t>
+  </si>
+  <si>
+    <t>什么是序列化？序列化的作用？</t>
+  </si>
+  <si>
+    <t>一个序列化的类，如果增加了一个字段，而反序列化一端没有增加这个字段，会产生什么样的后果？</t>
+  </si>
+  <si>
+    <t>新特性</t>
+  </si>
+  <si>
+    <t>List&lt;Object&gt;和List&lt;?&gt;的区别</t>
+  </si>
+  <si>
+    <t>ExecutorService</t>
+  </si>
+  <si>
+    <t>Executors</t>
+  </si>
+  <si>
+    <t>Semaphore</t>
+  </si>
+  <si>
+    <t>CountDownLatch</t>
+  </si>
+  <si>
+    <t>BlockingQueue</t>
+  </si>
+  <si>
+    <t>ReentrantLock</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>Spring IoC的实现原理？</t>
+  </si>
+  <si>
+    <t>Spring的AOP实现原理？</t>
+  </si>
+  <si>
+    <t>什么时候使用cglib，什么时候使用动态代理？</t>
+  </si>
+  <si>
+    <t>动态代理会使用到Java中的哪几个核心类？</t>
+  </si>
+  <si>
+    <t>bean的配置文件中，配置的bean默认是单例还是多例的？</t>
+  </si>
+  <si>
+    <t>如何在bean的配置文件中把配置的对象修改为多例的？</t>
+  </si>
+  <si>
+    <t>Spring中的声明式事务，如TRANSACTION_REQUIRED是什么意思？</t>
+  </si>
+  <si>
+    <t>Spring事务隔离级别？</t>
+  </si>
+  <si>
+    <t>ClassLoader</t>
+  </si>
+  <si>
+    <t>ClasssLoader的类加载顺序？</t>
+  </si>
+  <si>
+    <t>Java内存模型</t>
+  </si>
+  <si>
+    <t>堆/栈的区别？</t>
+  </si>
+  <si>
+    <t>如何调整堆大小？</t>
+  </si>
+  <si>
+    <t>Xmx参数和PermSize参数的区别？</t>
+  </si>
+  <si>
+    <t>垃圾收集算法</t>
+  </si>
+  <si>
+    <t>请简述一下分代垃圾收集法？为什么要进行分代收集</t>
+  </si>
+  <si>
+    <t>什么情况下会触发Full GC</t>
+  </si>
+  <si>
+    <t>年轻代的Eden区和Survivor区的区别</t>
+  </si>
+  <si>
+    <t>年轻代默认使用什么样的垃圾收集器</t>
+  </si>
+  <si>
+    <t>使用什么办法可以减少Full GC时应用暂停的时间</t>
+  </si>
+  <si>
+    <t>简述串行收集器/并行收集器/并发收集器的区别</t>
+  </si>
+  <si>
+    <t>CMS垃圾收集法</t>
+  </si>
+  <si>
+    <t>设计模式</t>
+  </si>
+  <si>
+    <t>简单工厂、工厂方法和抽象工厂的区别和应用场景</t>
+  </si>
+  <si>
+    <t>编写一个单例模式的类需要注意哪几点</t>
+  </si>
+  <si>
+    <t>举例代理模式，或者观察者模式的应用场景</t>
+  </si>
+  <si>
+    <t>代理模式和适配器模式的区别</t>
+  </si>
+  <si>
+    <t>策略模式和状态模式的区别</t>
+  </si>
+  <si>
+    <t>有一个公园，只允许100人同时参观，当达到100人时不允许进人，然后每出来一人进去一人。你采用什么模式来设计售票处和门禁的关系？</t>
   </si>
 </sst>
 </file>
@@ -122,12 +329,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,16 +359,130 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -174,133 +495,12 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -311,187 +511,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,6 +702,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -531,30 +764,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -579,26 +788,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,156 +807,153 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1118,24 +1315,24 @@
   <sheetPr/>
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:L7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:1">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1160,7 +1357,7 @@
       </c>
     </row>
     <row r="9" s="1" customFormat="1" spans="1:1">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1185,7 +1382,7 @@
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:1">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1200,7 +1397,7 @@
       </c>
     </row>
     <row r="19" s="1" customFormat="1" spans="1:1">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1230,12 +1427,12 @@
       </c>
     </row>
     <row r="26" s="1" customFormat="1" spans="1:1">
-      <c r="A26" s="2" t="s">
+      <c r="A26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1265,7 +1462,7 @@
       </c>
     </row>
     <row r="34" s="1" customFormat="1" spans="1:1">
-      <c r="A34" s="2" t="s">
+      <c r="A34" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1299,14 +1496,365 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" t="s">
+        <v>101</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/多线程/test.xlsx
+++ b/多线程/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="11970" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="并发" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="125">
   <si>
     <t>多线程</t>
   </si>
@@ -322,6 +322,75 @@
   </si>
   <si>
     <t>有一个公园，只允许100人同时参观，当达到100人时不允许进人，然后每出来一人进去一人。你采用什么模式来设计售票处和门禁的关系？</t>
+  </si>
+  <si>
+    <t>ThreadLocal</t>
+  </si>
+  <si>
+    <t>ThreadLocal如何实现数据隔离</t>
+  </si>
+  <si>
+    <t>ThreadLoalMap</t>
+  </si>
+  <si>
+    <t>ThreadLoalMap没有链表结构，那发生hash冲突了怎么办？</t>
+  </si>
+  <si>
+    <t>ThreadLocal可能导致内存泄漏，为什么？</t>
+  </si>
+  <si>
+    <t>ThreadLocal如何避免内存泄露</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap有哪些构造函数？</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap使用什么技术来保证线程安全？</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap的get方法是否要加锁，为什么？</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap迭代器是强一致性还是弱一致性？HashMap呢？</t>
+  </si>
+  <si>
+    <t>ConcurrentHashMap1.7和1.8的区别：</t>
+  </si>
+  <si>
+    <t>为啥 ConcurrentHashMap 读操作不需要加锁？</t>
+  </si>
+  <si>
+    <t>你对volatile关键字的理解</t>
+  </si>
+  <si>
+    <t>synchronzied关键词的使用</t>
+  </si>
+  <si>
+    <t>ReentrantLock和synchronized使用的场景是什么，机制有何不同</t>
+  </si>
+  <si>
+    <t>CyclicBarrier是什么？</t>
+  </si>
+  <si>
+    <t>CyclicBarrier和CountDownLatch的区别</t>
+  </si>
+  <si>
+    <t>什么是线程池：</t>
+  </si>
+  <si>
+    <t>一个线程池包括以下四个基本组成部分</t>
+  </si>
+  <si>
+    <t>常见线程池</t>
+  </si>
+  <si>
+    <t>线程池有哪些重要的参数？</t>
+  </si>
+  <si>
+    <t>在Java中Executor和Executors的区别</t>
+  </si>
+  <si>
+    <t>线程池的技术原理是什么</t>
   </si>
 </sst>
 </file>
@@ -329,12 +398,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -351,6 +420,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
@@ -359,14 +429,119 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -381,22 +556,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -410,66 +571,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -477,30 +578,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -511,25 +588,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,157 +762,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -702,65 +779,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -788,6 +806,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -802,164 +835,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1321,18 +1400,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:1">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1356,8 +1435,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:1">
-      <c r="A9" s="1" t="s">
+    <row r="9" s="3" customFormat="1" spans="1:1">
+      <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1381,8 +1460,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:1">
-      <c r="A15" s="1" t="s">
+    <row r="15" s="3" customFormat="1" spans="1:1">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1396,8 +1475,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" spans="1:1">
-      <c r="A19" s="1" t="s">
+    <row r="19" s="3" customFormat="1" spans="1:1">
+      <c r="A19" s="3" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1426,13 +1505,13 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" s="1" customFormat="1" spans="1:1">
-      <c r="A26" s="1" t="s">
+    <row r="26" s="3" customFormat="1" spans="1:1">
+      <c r="A26" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1461,8 +1540,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:1">
-      <c r="A34" s="1" t="s">
+    <row r="34" s="3" customFormat="1" spans="1:1">
+      <c r="A34" s="3" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1498,14 +1577,14 @@
   <sheetPr/>
   <dimension ref="A1:A81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1520,7 +1599,7 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1540,7 +1619,7 @@
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1565,7 +1644,7 @@
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="3" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1610,7 +1689,7 @@
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1650,7 +1729,7 @@
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1665,7 +1744,7 @@
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1760,7 +1839,7 @@
       </c>
     </row>
     <row r="61" spans="1:1">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1780,7 +1859,7 @@
       </c>
     </row>
     <row r="66" spans="1:1">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="3" t="s">
         <v>87</v>
       </c>
     </row>
@@ -1820,7 +1899,7 @@
       </c>
     </row>
     <row r="75" spans="1:1">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="3" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1864,14 +1943,138 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
